--- a/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-52weeks.xlsx
+++ b/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-52weeks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="399">
   <si>
     <t>status</t>
   </si>
@@ -1155,6 +1155,63 @@
   <si>
     <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
   </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-439-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-27_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-440-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-27_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-441-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-442-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-443-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-444-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-445-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-446-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-447-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-448-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-449-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-450-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-451-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-452-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-453-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-454-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-455-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-456-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-457-unconscious-12-23-12-30-Sum-ALL-Sum-2023-08-28_001.xlsx</t>
+  </si>
 </sst>
 </file>
 
@@ -1511,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA261"/>
+  <dimension ref="A1:BA280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41978,6 +42035,2951 @@
         <v>0</v>
       </c>
     </row>
+    <row r="262" spans="1:53">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>53</v>
+      </c>
+      <c r="C262" t="s">
+        <v>54</v>
+      </c>
+      <c r="D262" t="s">
+        <v>54</v>
+      </c>
+      <c r="E262" t="s">
+        <v>55</v>
+      </c>
+      <c r="F262" t="s">
+        <v>56</v>
+      </c>
+      <c r="G262" t="s">
+        <v>58</v>
+      </c>
+      <c r="H262">
+        <v>439</v>
+      </c>
+      <c r="I262" t="s">
+        <v>61</v>
+      </c>
+      <c r="J262" t="s">
+        <v>64</v>
+      </c>
+      <c r="K262" t="s">
+        <v>64</v>
+      </c>
+      <c r="L262" t="s">
+        <v>116</v>
+      </c>
+      <c r="M262" t="s">
+        <v>117</v>
+      </c>
+      <c r="N262">
+        <v>52</v>
+      </c>
+      <c r="O262">
+        <v>1.5</v>
+      </c>
+      <c r="P262">
+        <v>0.6</v>
+      </c>
+      <c r="Q262">
+        <v>0.6</v>
+      </c>
+      <c r="R262" t="s">
+        <v>118</v>
+      </c>
+      <c r="S262">
+        <v>167.6613279984375</v>
+      </c>
+      <c r="T262">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U262">
+        <v>147.0534936</v>
+      </c>
+      <c r="V262" t="s">
+        <v>380</v>
+      </c>
+      <c r="W262">
+        <v>167.6613279984375</v>
+      </c>
+      <c r="X262">
+        <v>149.6202321080266</v>
+      </c>
+      <c r="Y262">
+        <v>18.04109589041096</v>
+      </c>
+      <c r="Z262">
+        <v>18.04109589041096</v>
+      </c>
+      <c r="AA262">
+        <v>439</v>
+      </c>
+      <c r="AB262">
+        <v>9.180834809969092</v>
+      </c>
+      <c r="AC262">
+        <v>0</v>
+      </c>
+      <c r="AD262">
+        <v>0</v>
+      </c>
+      <c r="AE262">
+        <v>0.133079241467311</v>
+      </c>
+      <c r="AF262">
+        <v>0.133079241467311</v>
+      </c>
+      <c r="AG262">
+        <v>0.1187593301019585</v>
+      </c>
+      <c r="AI262">
+        <v>52.2330471419322</v>
+      </c>
+      <c r="AJ262">
+        <v>101.1806012517393</v>
+      </c>
+      <c r="AL262">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM262">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN262">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO262">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP262">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ262">
+        <v>804.9048669492438</v>
+      </c>
+      <c r="AR262">
+        <v>42.22478365189934</v>
+      </c>
+      <c r="AS262">
+        <v>108.4315945797136</v>
+      </c>
+      <c r="AT262">
+        <v>7.250993327974266</v>
+      </c>
+      <c r="AU262">
+        <v>87.05507856988702</v>
+      </c>
+      <c r="AV262">
+        <v>22.37108742896616</v>
+      </c>
+      <c r="AW262">
+        <v>3.793416285644947</v>
+      </c>
+      <c r="AX262">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY262">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ262">
+        <v>0</v>
+      </c>
+      <c r="BA262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:53">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>53</v>
+      </c>
+      <c r="C263" t="s">
+        <v>54</v>
+      </c>
+      <c r="D263" t="s">
+        <v>54</v>
+      </c>
+      <c r="E263" t="s">
+        <v>55</v>
+      </c>
+      <c r="F263" t="s">
+        <v>56</v>
+      </c>
+      <c r="G263" t="s">
+        <v>58</v>
+      </c>
+      <c r="H263">
+        <v>440</v>
+      </c>
+      <c r="I263" t="s">
+        <v>60</v>
+      </c>
+      <c r="J263" t="s">
+        <v>64</v>
+      </c>
+      <c r="K263" t="s">
+        <v>64</v>
+      </c>
+      <c r="L263" t="s">
+        <v>116</v>
+      </c>
+      <c r="M263" t="s">
+        <v>117</v>
+      </c>
+      <c r="N263">
+        <v>52</v>
+      </c>
+      <c r="O263">
+        <v>1.5</v>
+      </c>
+      <c r="P263">
+        <v>0.6</v>
+      </c>
+      <c r="Q263">
+        <v>0.6</v>
+      </c>
+      <c r="R263" t="s">
+        <v>118</v>
+      </c>
+      <c r="S263">
+        <v>162.1028687279782</v>
+      </c>
+      <c r="T263">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U263">
+        <v>1836.2156538</v>
+      </c>
+      <c r="V263" t="s">
+        <v>381</v>
+      </c>
+      <c r="W263">
+        <v>162.1028687279782</v>
+      </c>
+      <c r="X263">
+        <v>144.0206769471563</v>
+      </c>
+      <c r="Y263">
+        <v>18.08219178082192</v>
+      </c>
+      <c r="Z263">
+        <v>18.08219178082192</v>
+      </c>
+      <c r="AA263">
+        <v>440</v>
+      </c>
+      <c r="AB263">
+        <v>9.20174787331754</v>
+      </c>
+      <c r="AC263">
+        <v>0</v>
+      </c>
+      <c r="AD263">
+        <v>0</v>
+      </c>
+      <c r="AE263">
+        <v>0.1286672786594859</v>
+      </c>
+      <c r="AF263">
+        <v>0.1286672786594859</v>
+      </c>
+      <c r="AG263">
+        <v>0.1143147479060575</v>
+      </c>
+      <c r="AI263">
+        <v>47.3320529732466</v>
+      </c>
+      <c r="AJ263">
+        <v>101.6280529791537</v>
+      </c>
+      <c r="AL263">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM263">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN263">
+        <v>112.2528057422672</v>
+      </c>
+      <c r="AO263">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP263">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ263">
+        <v>807.5433410789137</v>
+      </c>
+      <c r="AR263">
+        <v>40.88316818781891</v>
+      </c>
+      <c r="AS263">
+        <v>108.839843847485</v>
+      </c>
+      <c r="AT263">
+        <v>7.211790868331253</v>
+      </c>
+      <c r="AU263">
+        <v>78.88675495541101</v>
+      </c>
+      <c r="AV263">
+        <v>29.12952067603067</v>
+      </c>
+      <c r="AW263">
+        <v>4.939429005244049</v>
+      </c>
+      <c r="AX263">
+        <v>0</v>
+      </c>
+      <c r="AY263">
+        <v>0</v>
+      </c>
+      <c r="AZ263">
+        <v>0</v>
+      </c>
+      <c r="BA263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:53">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>53</v>
+      </c>
+      <c r="C264" t="s">
+        <v>54</v>
+      </c>
+      <c r="D264" t="s">
+        <v>54</v>
+      </c>
+      <c r="E264" t="s">
+        <v>55</v>
+      </c>
+      <c r="F264" t="s">
+        <v>56</v>
+      </c>
+      <c r="G264" t="s">
+        <v>58</v>
+      </c>
+      <c r="H264">
+        <v>441</v>
+      </c>
+      <c r="I264" t="s">
+        <v>61</v>
+      </c>
+      <c r="J264" t="s">
+        <v>64</v>
+      </c>
+      <c r="K264" t="s">
+        <v>64</v>
+      </c>
+      <c r="L264" t="s">
+        <v>116</v>
+      </c>
+      <c r="M264" t="s">
+        <v>117</v>
+      </c>
+      <c r="N264">
+        <v>52</v>
+      </c>
+      <c r="O264">
+        <v>1.5</v>
+      </c>
+      <c r="P264">
+        <v>0.6</v>
+      </c>
+      <c r="Q264">
+        <v>0.6</v>
+      </c>
+      <c r="R264" t="s">
+        <v>118</v>
+      </c>
+      <c r="S264">
+        <v>167.3584301336257</v>
+      </c>
+      <c r="T264">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U264">
+        <v>115.062997</v>
+      </c>
+      <c r="V264" t="s">
+        <v>382</v>
+      </c>
+      <c r="W264">
+        <v>167.3584301336257</v>
+      </c>
+      <c r="X264">
+        <v>149.2351424623928</v>
+      </c>
+      <c r="Y264">
+        <v>18.12328767123288</v>
+      </c>
+      <c r="Z264">
+        <v>18.12328767123288</v>
+      </c>
+      <c r="AA264">
+        <v>441</v>
+      </c>
+      <c r="AB264">
+        <v>9.22266093666599</v>
+      </c>
+      <c r="AC264">
+        <v>0</v>
+      </c>
+      <c r="AD264">
+        <v>0</v>
+      </c>
+      <c r="AE264">
+        <v>0.1328388197876521</v>
+      </c>
+      <c r="AF264">
+        <v>0.1328388197876521</v>
+      </c>
+      <c r="AG264">
+        <v>0.1184536696461477</v>
+      </c>
+      <c r="AI264">
+        <v>52.23304714193222</v>
+      </c>
+      <c r="AJ264">
+        <v>101.1346472245854</v>
+      </c>
+      <c r="AL264">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM264">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN264">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO264">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP264">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ264">
+        <v>806.9775794522197</v>
+      </c>
+      <c r="AR264">
+        <v>43.90442597678758</v>
+      </c>
+      <c r="AS264">
+        <v>108.6819294586699</v>
+      </c>
+      <c r="AT264">
+        <v>7.547282234084553</v>
+      </c>
+      <c r="AU264">
+        <v>87.05507856988703</v>
+      </c>
+      <c r="AV264">
+        <v>24.37108742896593</v>
+      </c>
+      <c r="AW264">
+        <v>4.132551904124788</v>
+      </c>
+      <c r="AX264">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY264">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ264">
+        <v>0</v>
+      </c>
+      <c r="BA264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:53">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>53</v>
+      </c>
+      <c r="C265" t="s">
+        <v>54</v>
+      </c>
+      <c r="D265" t="s">
+        <v>54</v>
+      </c>
+      <c r="E265" t="s">
+        <v>55</v>
+      </c>
+      <c r="F265" t="s">
+        <v>56</v>
+      </c>
+      <c r="G265" t="s">
+        <v>58</v>
+      </c>
+      <c r="H265">
+        <v>442</v>
+      </c>
+      <c r="I265" t="s">
+        <v>60</v>
+      </c>
+      <c r="J265" t="s">
+        <v>64</v>
+      </c>
+      <c r="K265" t="s">
+        <v>64</v>
+      </c>
+      <c r="L265" t="s">
+        <v>116</v>
+      </c>
+      <c r="M265" t="s">
+        <v>117</v>
+      </c>
+      <c r="N265">
+        <v>52</v>
+      </c>
+      <c r="O265">
+        <v>1.5</v>
+      </c>
+      <c r="P265">
+        <v>0.6</v>
+      </c>
+      <c r="Q265">
+        <v>0.6</v>
+      </c>
+      <c r="R265" t="s">
+        <v>118</v>
+      </c>
+      <c r="S265">
+        <v>162.0867612937201</v>
+      </c>
+      <c r="T265">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U265">
+        <v>113.8713066999999</v>
+      </c>
+      <c r="V265" t="s">
+        <v>383</v>
+      </c>
+      <c r="W265">
+        <v>162.0867612937201</v>
+      </c>
+      <c r="X265">
+        <v>143.9223777320763</v>
+      </c>
+      <c r="Y265">
+        <v>18.16438356164383</v>
+      </c>
+      <c r="Z265">
+        <v>18.16438356164383</v>
+      </c>
+      <c r="AA265">
+        <v>442</v>
+      </c>
+      <c r="AB265">
+        <v>9.243574000014439</v>
+      </c>
+      <c r="AC265">
+        <v>0</v>
+      </c>
+      <c r="AD265">
+        <v>0</v>
+      </c>
+      <c r="AE265">
+        <v>0.1286544935696942</v>
+      </c>
+      <c r="AF265">
+        <v>0.1286544935696942</v>
+      </c>
+      <c r="AG265">
+        <v>0.1142367240401139</v>
+      </c>
+      <c r="AI265">
+        <v>47.33205297324664</v>
+      </c>
+      <c r="AJ265">
+        <v>101.5303305253296</v>
+      </c>
+      <c r="AL265">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM265">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN265">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO265">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP265">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ265">
+        <v>809.0103918047969</v>
+      </c>
+      <c r="AR265">
+        <v>42.2804856244806</v>
+      </c>
+      <c r="AS265">
+        <v>108.988608189488</v>
+      </c>
+      <c r="AT265">
+        <v>7.458277664158379</v>
+      </c>
+      <c r="AU265">
+        <v>78.88675495541106</v>
+      </c>
+      <c r="AV265">
+        <v>29.13292203657495</v>
+      </c>
+      <c r="AW265">
+        <v>4.940005766499977</v>
+      </c>
+      <c r="AX265">
+        <v>0</v>
+      </c>
+      <c r="AY265">
+        <v>0</v>
+      </c>
+      <c r="AZ265">
+        <v>0</v>
+      </c>
+      <c r="BA265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:53">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>53</v>
+      </c>
+      <c r="C266" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" t="s">
+        <v>54</v>
+      </c>
+      <c r="E266" t="s">
+        <v>55</v>
+      </c>
+      <c r="F266" t="s">
+        <v>56</v>
+      </c>
+      <c r="G266" t="s">
+        <v>58</v>
+      </c>
+      <c r="H266">
+        <v>443</v>
+      </c>
+      <c r="I266" t="s">
+        <v>61</v>
+      </c>
+      <c r="J266" t="s">
+        <v>64</v>
+      </c>
+      <c r="K266" t="s">
+        <v>64</v>
+      </c>
+      <c r="L266" t="s">
+        <v>116</v>
+      </c>
+      <c r="M266" t="s">
+        <v>117</v>
+      </c>
+      <c r="N266">
+        <v>52</v>
+      </c>
+      <c r="O266">
+        <v>1.5</v>
+      </c>
+      <c r="P266">
+        <v>0.6</v>
+      </c>
+      <c r="Q266">
+        <v>0.6</v>
+      </c>
+      <c r="R266" t="s">
+        <v>118</v>
+      </c>
+      <c r="S266">
+        <v>167.0512716206981</v>
+      </c>
+      <c r="T266">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U266">
+        <v>114.2283462999999</v>
+      </c>
+      <c r="V266" t="s">
+        <v>384</v>
+      </c>
+      <c r="W266">
+        <v>167.0512716206981</v>
+      </c>
+      <c r="X266">
+        <v>148.8457921686434</v>
+      </c>
+      <c r="Y266">
+        <v>18.2054794520548</v>
+      </c>
+      <c r="Z266">
+        <v>18.2054794520548</v>
+      </c>
+      <c r="AA266">
+        <v>443</v>
+      </c>
+      <c r="AB266">
+        <v>9.264487063362889</v>
+      </c>
+      <c r="AC266">
+        <v>0</v>
+      </c>
+      <c r="AD266">
+        <v>0</v>
+      </c>
+      <c r="AE266">
+        <v>0.1325950162677909</v>
+      </c>
+      <c r="AF266">
+        <v>0.1325950162677909</v>
+      </c>
+      <c r="AG266">
+        <v>0.1181446273501345</v>
+      </c>
+      <c r="AI266">
+        <v>52.2330471419322</v>
+      </c>
+      <c r="AJ266">
+        <v>101.0844325493159</v>
+      </c>
+      <c r="AL266">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM266">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN266">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO266">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP266">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ266">
+        <v>808.9983632556865</v>
+      </c>
+      <c r="AR266">
+        <v>45.56387538841203</v>
+      </c>
+      <c r="AS266">
+        <v>108.924441659611</v>
+      </c>
+      <c r="AT266">
+        <v>7.840009110295105</v>
+      </c>
+      <c r="AU266">
+        <v>87.055078569887</v>
+      </c>
+      <c r="AV266">
+        <v>26.37108742896625</v>
+      </c>
+      <c r="AW266">
+        <v>4.471687522604721</v>
+      </c>
+      <c r="AX266">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY266">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ266">
+        <v>0</v>
+      </c>
+      <c r="BA266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:53">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>53</v>
+      </c>
+      <c r="C267" t="s">
+        <v>54</v>
+      </c>
+      <c r="D267" t="s">
+        <v>54</v>
+      </c>
+      <c r="E267" t="s">
+        <v>55</v>
+      </c>
+      <c r="F267" t="s">
+        <v>56</v>
+      </c>
+      <c r="G267" t="s">
+        <v>58</v>
+      </c>
+      <c r="H267">
+        <v>444</v>
+      </c>
+      <c r="I267" t="s">
+        <v>60</v>
+      </c>
+      <c r="J267" t="s">
+        <v>64</v>
+      </c>
+      <c r="K267" t="s">
+        <v>64</v>
+      </c>
+      <c r="L267" t="s">
+        <v>116</v>
+      </c>
+      <c r="M267" t="s">
+        <v>117</v>
+      </c>
+      <c r="N267">
+        <v>52</v>
+      </c>
+      <c r="O267">
+        <v>1.5</v>
+      </c>
+      <c r="P267">
+        <v>0.6</v>
+      </c>
+      <c r="Q267">
+        <v>0.6</v>
+      </c>
+      <c r="R267" t="s">
+        <v>118</v>
+      </c>
+      <c r="S267">
+        <v>162.0604370950975</v>
+      </c>
+      <c r="T267">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U267">
+        <v>114.0022878</v>
+      </c>
+      <c r="V267" t="s">
+        <v>385</v>
+      </c>
+      <c r="W267">
+        <v>162.0604370950975</v>
+      </c>
+      <c r="X267">
+        <v>143.8138617526317</v>
+      </c>
+      <c r="Y267">
+        <v>18.24657534246575</v>
+      </c>
+      <c r="Z267">
+        <v>18.24657534246575</v>
+      </c>
+      <c r="AA267">
+        <v>444</v>
+      </c>
+      <c r="AB267">
+        <v>9.285400126711338</v>
+      </c>
+      <c r="AC267">
+        <v>0</v>
+      </c>
+      <c r="AD267">
+        <v>0</v>
+      </c>
+      <c r="AE267">
+        <v>0.1286335990412615</v>
+      </c>
+      <c r="AF267">
+        <v>0.1286335990412615</v>
+      </c>
+      <c r="AG267">
+        <v>0.1141505907355291</v>
+      </c>
+      <c r="AI267">
+        <v>47.33205297324668</v>
+      </c>
+      <c r="AJ267">
+        <v>101.4347541515146</v>
+      </c>
+      <c r="AL267">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM267">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN267">
+        <v>112.2528057422672</v>
+      </c>
+      <c r="AO267">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP267">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ267">
+        <v>810.4594555080564</v>
+      </c>
+      <c r="AR267">
+        <v>43.64959371123183</v>
+      </c>
+      <c r="AS267">
+        <v>109.1345424821759</v>
+      </c>
+      <c r="AT267">
+        <v>7.699788330661289</v>
+      </c>
+      <c r="AU267">
+        <v>78.88675495541115</v>
+      </c>
+      <c r="AV267">
+        <v>29.2092313649057</v>
+      </c>
+      <c r="AW267">
+        <v>4.952945372129594</v>
+      </c>
+      <c r="AX267">
+        <v>0</v>
+      </c>
+      <c r="AY267">
+        <v>0</v>
+      </c>
+      <c r="AZ267">
+        <v>0</v>
+      </c>
+      <c r="BA267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:53">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>53</v>
+      </c>
+      <c r="C268" t="s">
+        <v>54</v>
+      </c>
+      <c r="D268" t="s">
+        <v>54</v>
+      </c>
+      <c r="E268" t="s">
+        <v>55</v>
+      </c>
+      <c r="F268" t="s">
+        <v>56</v>
+      </c>
+      <c r="G268" t="s">
+        <v>58</v>
+      </c>
+      <c r="H268">
+        <v>445</v>
+      </c>
+      <c r="I268" t="s">
+        <v>61</v>
+      </c>
+      <c r="J268" t="s">
+        <v>64</v>
+      </c>
+      <c r="K268" t="s">
+        <v>64</v>
+      </c>
+      <c r="L268" t="s">
+        <v>116</v>
+      </c>
+      <c r="M268" t="s">
+        <v>117</v>
+      </c>
+      <c r="N268">
+        <v>52</v>
+      </c>
+      <c r="O268">
+        <v>1.5</v>
+      </c>
+      <c r="P268">
+        <v>0.6</v>
+      </c>
+      <c r="Q268">
+        <v>0.6</v>
+      </c>
+      <c r="R268" t="s">
+        <v>118</v>
+      </c>
+      <c r="S268">
+        <v>166.7340958982965</v>
+      </c>
+      <c r="T268">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U268">
+        <v>114.8260808</v>
+      </c>
+      <c r="V268" t="s">
+        <v>386</v>
+      </c>
+      <c r="W268">
+        <v>166.7340958982965</v>
+      </c>
+      <c r="X268">
+        <v>148.4464246654198</v>
+      </c>
+      <c r="Y268">
+        <v>18.28767123287671</v>
+      </c>
+      <c r="Z268">
+        <v>18.28767123287671</v>
+      </c>
+      <c r="AA268">
+        <v>445</v>
+      </c>
+      <c r="AB268">
+        <v>9.306313190059786</v>
+      </c>
+      <c r="AC268">
+        <v>0</v>
+      </c>
+      <c r="AD268">
+        <v>0</v>
+      </c>
+      <c r="AE268">
+        <v>0.1323432617036767</v>
+      </c>
+      <c r="AF268">
+        <v>0.1323432617036767</v>
+      </c>
+      <c r="AG268">
+        <v>0.1178276340098684</v>
+      </c>
+      <c r="AI268">
+        <v>52.2330471419322</v>
+      </c>
+      <c r="AJ268">
+        <v>101.0242006645722</v>
+      </c>
+      <c r="AL268">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM268">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN268">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO268">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP268">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ268">
+        <v>810.9403461935798</v>
+      </c>
+      <c r="AR268">
+        <v>47.24211850733901</v>
+      </c>
+      <c r="AS268">
+        <v>109.1624153913924</v>
+      </c>
+      <c r="AT268">
+        <v>8.13821472682017</v>
+      </c>
+      <c r="AU268">
+        <v>87.055078569887</v>
+      </c>
+      <c r="AV268">
+        <v>28.37108742896625</v>
+      </c>
+      <c r="AW268">
+        <v>4.810823141084601</v>
+      </c>
+      <c r="AX268">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY268">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ268">
+        <v>0</v>
+      </c>
+      <c r="BA268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:53">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>53</v>
+      </c>
+      <c r="C269" t="s">
+        <v>54</v>
+      </c>
+      <c r="D269" t="s">
+        <v>54</v>
+      </c>
+      <c r="E269" t="s">
+        <v>55</v>
+      </c>
+      <c r="F269" t="s">
+        <v>56</v>
+      </c>
+      <c r="G269" t="s">
+        <v>58</v>
+      </c>
+      <c r="H269">
+        <v>446</v>
+      </c>
+      <c r="I269" t="s">
+        <v>60</v>
+      </c>
+      <c r="J269" t="s">
+        <v>64</v>
+      </c>
+      <c r="K269" t="s">
+        <v>64</v>
+      </c>
+      <c r="L269" t="s">
+        <v>116</v>
+      </c>
+      <c r="M269" t="s">
+        <v>117</v>
+      </c>
+      <c r="N269">
+        <v>52</v>
+      </c>
+      <c r="O269">
+        <v>1.5</v>
+      </c>
+      <c r="P269">
+        <v>0.6</v>
+      </c>
+      <c r="Q269">
+        <v>0.6</v>
+      </c>
+      <c r="R269" t="s">
+        <v>118</v>
+      </c>
+      <c r="S269">
+        <v>161.9463522123698</v>
+      </c>
+      <c r="T269">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U269">
+        <v>114.0747946000001</v>
+      </c>
+      <c r="V269" t="s">
+        <v>387</v>
+      </c>
+      <c r="W269">
+        <v>161.9463522123698</v>
+      </c>
+      <c r="X269">
+        <v>143.6175850890821</v>
+      </c>
+      <c r="Y269">
+        <v>18.32876712328767</v>
+      </c>
+      <c r="Z269">
+        <v>18.32876712328767</v>
+      </c>
+      <c r="AA269">
+        <v>446</v>
+      </c>
+      <c r="AB269">
+        <v>9.327226253408234</v>
+      </c>
+      <c r="AC269">
+        <v>0</v>
+      </c>
+      <c r="AD269">
+        <v>0</v>
+      </c>
+      <c r="AE269">
+        <v>0.1285430454840546</v>
+      </c>
+      <c r="AF269">
+        <v>0.1285430454840546</v>
+      </c>
+      <c r="AG269">
+        <v>0.1139947984021703</v>
+      </c>
+      <c r="AI269">
+        <v>47.33205297324661</v>
+      </c>
+      <c r="AJ269">
+        <v>101.355309164917</v>
+      </c>
+      <c r="AL269">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM269">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN269">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO269">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP269">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ269">
+        <v>811.8381445233307</v>
+      </c>
+      <c r="AR269">
+        <v>44.86242303133608</v>
+      </c>
+      <c r="AS269">
+        <v>109.2690405876447</v>
+      </c>
+      <c r="AT269">
+        <v>7.913731422727681</v>
+      </c>
+      <c r="AU269">
+        <v>78.88675495541102</v>
+      </c>
+      <c r="AV269">
+        <v>29.89822815902388</v>
+      </c>
+      <c r="AW269">
+        <v>5.069777049081555</v>
+      </c>
+      <c r="AX269">
+        <v>0</v>
+      </c>
+      <c r="AY269">
+        <v>0</v>
+      </c>
+      <c r="AZ269">
+        <v>0</v>
+      </c>
+      <c r="BA269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:53">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>53</v>
+      </c>
+      <c r="C270" t="s">
+        <v>54</v>
+      </c>
+      <c r="D270" t="s">
+        <v>54</v>
+      </c>
+      <c r="E270" t="s">
+        <v>55</v>
+      </c>
+      <c r="F270" t="s">
+        <v>56</v>
+      </c>
+      <c r="G270" t="s">
+        <v>58</v>
+      </c>
+      <c r="H270">
+        <v>447</v>
+      </c>
+      <c r="I270" t="s">
+        <v>61</v>
+      </c>
+      <c r="J270" t="s">
+        <v>64</v>
+      </c>
+      <c r="K270" t="s">
+        <v>64</v>
+      </c>
+      <c r="L270" t="s">
+        <v>116</v>
+      </c>
+      <c r="M270" t="s">
+        <v>117</v>
+      </c>
+      <c r="N270">
+        <v>52</v>
+      </c>
+      <c r="O270">
+        <v>1.5</v>
+      </c>
+      <c r="P270">
+        <v>0.6</v>
+      </c>
+      <c r="Q270">
+        <v>0.6</v>
+      </c>
+      <c r="R270" t="s">
+        <v>118</v>
+      </c>
+      <c r="S270">
+        <v>166.4597603304924</v>
+      </c>
+      <c r="T270">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U270">
+        <v>114.1078899000004</v>
+      </c>
+      <c r="V270" t="s">
+        <v>388</v>
+      </c>
+      <c r="W270">
+        <v>166.4597603304924</v>
+      </c>
+      <c r="X270">
+        <v>148.0898973167938</v>
+      </c>
+      <c r="Y270">
+        <v>18.36986301369863</v>
+      </c>
+      <c r="Z270">
+        <v>18.36986301369863</v>
+      </c>
+      <c r="AA270">
+        <v>447</v>
+      </c>
+      <c r="AB270">
+        <v>9.348139316756683</v>
+      </c>
+      <c r="AC270">
+        <v>0</v>
+      </c>
+      <c r="AD270">
+        <v>0</v>
+      </c>
+      <c r="AE270">
+        <v>0.1321255110171784</v>
+      </c>
+      <c r="AF270">
+        <v>0.1321255110171784</v>
+      </c>
+      <c r="AG270">
+        <v>0.1175446445472181</v>
+      </c>
+      <c r="AI270">
+        <v>52.2330471419322</v>
+      </c>
+      <c r="AJ270">
+        <v>101.0068089344261</v>
+      </c>
+      <c r="AL270">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM270">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN270">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO270">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP270">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ270">
+        <v>812.9813229103107</v>
+      </c>
+      <c r="AR270">
+        <v>48.50096377839159</v>
+      </c>
+      <c r="AS270">
+        <v>109.4092478318543</v>
+      </c>
+      <c r="AT270">
+        <v>8.402438897428178</v>
+      </c>
+      <c r="AU270">
+        <v>87.055078569887</v>
+      </c>
+      <c r="AV270">
+        <v>30.37108742896625</v>
+      </c>
+      <c r="AW270">
+        <v>5.14995875956448</v>
+      </c>
+      <c r="AX270">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY270">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ270">
+        <v>0</v>
+      </c>
+      <c r="BA270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:53">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>53</v>
+      </c>
+      <c r="C271" t="s">
+        <v>54</v>
+      </c>
+      <c r="D271" t="s">
+        <v>54</v>
+      </c>
+      <c r="E271" t="s">
+        <v>55</v>
+      </c>
+      <c r="F271" t="s">
+        <v>56</v>
+      </c>
+      <c r="G271" t="s">
+        <v>58</v>
+      </c>
+      <c r="H271">
+        <v>448</v>
+      </c>
+      <c r="I271" t="s">
+        <v>60</v>
+      </c>
+      <c r="J271" t="s">
+        <v>64</v>
+      </c>
+      <c r="K271" t="s">
+        <v>64</v>
+      </c>
+      <c r="L271" t="s">
+        <v>116</v>
+      </c>
+      <c r="M271" t="s">
+        <v>117</v>
+      </c>
+      <c r="N271">
+        <v>52</v>
+      </c>
+      <c r="O271">
+        <v>1.5</v>
+      </c>
+      <c r="P271">
+        <v>0.6</v>
+      </c>
+      <c r="Q271">
+        <v>0.6</v>
+      </c>
+      <c r="R271" t="s">
+        <v>118</v>
+      </c>
+      <c r="S271">
+        <v>161.931950958618</v>
+      </c>
+      <c r="T271">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U271">
+        <v>113.9991418999998</v>
+      </c>
+      <c r="V271" t="s">
+        <v>389</v>
+      </c>
+      <c r="W271">
+        <v>161.931950958618</v>
+      </c>
+      <c r="X271">
+        <v>143.5209920545085</v>
+      </c>
+      <c r="Y271">
+        <v>18.41095890410959</v>
+      </c>
+      <c r="Z271">
+        <v>18.41095890410959</v>
+      </c>
+      <c r="AA271">
+        <v>448</v>
+      </c>
+      <c r="AB271">
+        <v>9.369052380105133</v>
+      </c>
+      <c r="AC271">
+        <v>0</v>
+      </c>
+      <c r="AD271">
+        <v>0</v>
+      </c>
+      <c r="AE271">
+        <v>0.1285316146553218</v>
+      </c>
+      <c r="AF271">
+        <v>0.1285316146553218</v>
+      </c>
+      <c r="AG271">
+        <v>0.1139181287972856</v>
+      </c>
+      <c r="AI271">
+        <v>47.33205297324666</v>
+      </c>
+      <c r="AJ271">
+        <v>101.2598696528552</v>
+      </c>
+      <c r="AL271">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM271">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN271">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO271">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP271">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ271">
+        <v>813.3836542288495</v>
+      </c>
+      <c r="AR271">
+        <v>46.3484703188733</v>
+      </c>
+      <c r="AS271">
+        <v>109.4357398171045</v>
+      </c>
+      <c r="AT271">
+        <v>8.175870164249243</v>
+      </c>
+      <c r="AU271">
+        <v>78.88675495541111</v>
+      </c>
+      <c r="AV271">
+        <v>29.9050308801124</v>
+      </c>
+      <c r="AW271">
+        <v>5.070930571593406</v>
+      </c>
+      <c r="AX271">
+        <v>0</v>
+      </c>
+      <c r="AY271">
+        <v>0</v>
+      </c>
+      <c r="AZ271">
+        <v>0</v>
+      </c>
+      <c r="BA271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:53">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>53</v>
+      </c>
+      <c r="C272" t="s">
+        <v>54</v>
+      </c>
+      <c r="D272" t="s">
+        <v>54</v>
+      </c>
+      <c r="E272" t="s">
+        <v>55</v>
+      </c>
+      <c r="F272" t="s">
+        <v>56</v>
+      </c>
+      <c r="G272" t="s">
+        <v>58</v>
+      </c>
+      <c r="H272">
+        <v>449</v>
+      </c>
+      <c r="I272" t="s">
+        <v>61</v>
+      </c>
+      <c r="J272" t="s">
+        <v>64</v>
+      </c>
+      <c r="K272" t="s">
+        <v>64</v>
+      </c>
+      <c r="L272" t="s">
+        <v>116</v>
+      </c>
+      <c r="M272" t="s">
+        <v>117</v>
+      </c>
+      <c r="N272">
+        <v>52</v>
+      </c>
+      <c r="O272">
+        <v>1.5</v>
+      </c>
+      <c r="P272">
+        <v>0.6</v>
+      </c>
+      <c r="Q272">
+        <v>0.6</v>
+      </c>
+      <c r="R272" t="s">
+        <v>118</v>
+      </c>
+      <c r="S272">
+        <v>166.1546408485173</v>
+      </c>
+      <c r="T272">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U272">
+        <v>113.9815318999999</v>
+      </c>
+      <c r="V272" t="s">
+        <v>390</v>
+      </c>
+      <c r="W272">
+        <v>166.1546408485173</v>
+      </c>
+      <c r="X272">
+        <v>147.7025860539967</v>
+      </c>
+      <c r="Y272">
+        <v>18.45205479452055</v>
+      </c>
+      <c r="Z272">
+        <v>18.45205479452055</v>
+      </c>
+      <c r="AA272">
+        <v>449</v>
+      </c>
+      <c r="AB272">
+        <v>9.389965443453582</v>
+      </c>
+      <c r="AC272">
+        <v>0</v>
+      </c>
+      <c r="AD272">
+        <v>0</v>
+      </c>
+      <c r="AE272">
+        <v>0.1318833259545709</v>
+      </c>
+      <c r="AF272">
+        <v>0.1318833259545709</v>
+      </c>
+      <c r="AG272">
+        <v>0.1172372207084587</v>
+      </c>
+      <c r="AI272">
+        <v>52.23304714193217</v>
+      </c>
+      <c r="AJ272">
+        <v>100.958633290109</v>
+      </c>
+      <c r="AL272">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM272">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN272">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO272">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP272">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ272">
+        <v>815.0222996270411</v>
+      </c>
+      <c r="AR272">
+        <v>50.18060610327979</v>
+      </c>
+      <c r="AS272">
+        <v>109.6573610936475</v>
+      </c>
+      <c r="AT272">
+        <v>8.698727803538452</v>
+      </c>
+      <c r="AU272">
+        <v>87.05507856988694</v>
+      </c>
+      <c r="AV272">
+        <v>32.37108742896704</v>
+      </c>
+      <c r="AW272">
+        <v>5.489094378044494</v>
+      </c>
+      <c r="AX272">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY272">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ272">
+        <v>0</v>
+      </c>
+      <c r="BA272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:53">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>53</v>
+      </c>
+      <c r="C273" t="s">
+        <v>54</v>
+      </c>
+      <c r="D273" t="s">
+        <v>54</v>
+      </c>
+      <c r="E273" t="s">
+        <v>55</v>
+      </c>
+      <c r="F273" t="s">
+        <v>56</v>
+      </c>
+      <c r="G273" t="s">
+        <v>58</v>
+      </c>
+      <c r="H273">
+        <v>450</v>
+      </c>
+      <c r="I273" t="s">
+        <v>60</v>
+      </c>
+      <c r="J273" t="s">
+        <v>64</v>
+      </c>
+      <c r="K273" t="s">
+        <v>64</v>
+      </c>
+      <c r="L273" t="s">
+        <v>116</v>
+      </c>
+      <c r="M273" t="s">
+        <v>117</v>
+      </c>
+      <c r="N273">
+        <v>52</v>
+      </c>
+      <c r="O273">
+        <v>1.5</v>
+      </c>
+      <c r="P273">
+        <v>0.6</v>
+      </c>
+      <c r="Q273">
+        <v>0.6</v>
+      </c>
+      <c r="R273" t="s">
+        <v>118</v>
+      </c>
+      <c r="S273">
+        <v>161.9188484205371</v>
+      </c>
+      <c r="T273">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U273">
+        <v>114.2684779000001</v>
+      </c>
+      <c r="V273" t="s">
+        <v>391</v>
+      </c>
+      <c r="W273">
+        <v>161.9188484205371</v>
+      </c>
+      <c r="X273">
+        <v>143.4256977356056</v>
+      </c>
+      <c r="Y273">
+        <v>18.49315068493151</v>
+      </c>
+      <c r="Z273">
+        <v>18.49315068493151</v>
+      </c>
+      <c r="AA273">
+        <v>450</v>
+      </c>
+      <c r="AB273">
+        <v>9.410878506802032</v>
+      </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
+      <c r="AE273">
+        <v>0.1285212146671437</v>
+      </c>
+      <c r="AF273">
+        <v>0.1285212146671437</v>
+      </c>
+      <c r="AG273">
+        <v>0.1138424900329555</v>
+      </c>
+      <c r="AI273">
+        <v>47.33205297324661</v>
+      </c>
+      <c r="AJ273">
+        <v>101.1657288564642</v>
+      </c>
+      <c r="AL273">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM273">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN273">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO273">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP273">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ273">
+        <v>815.1306453422151</v>
+      </c>
+      <c r="AR273">
+        <v>48.02525124286736</v>
+      </c>
+      <c r="AS273">
+        <v>109.637383175706</v>
+      </c>
+      <c r="AT273">
+        <v>8.471654319241797</v>
+      </c>
+      <c r="AU273">
+        <v>78.88675495541102</v>
+      </c>
+      <c r="AV273">
+        <v>29.91183360120075</v>
+      </c>
+      <c r="AW273">
+        <v>5.072084094105228</v>
+      </c>
+      <c r="AX273">
+        <v>0</v>
+      </c>
+      <c r="AY273">
+        <v>0</v>
+      </c>
+      <c r="AZ273">
+        <v>0</v>
+      </c>
+      <c r="BA273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:53">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>53</v>
+      </c>
+      <c r="C274" t="s">
+        <v>54</v>
+      </c>
+      <c r="D274" t="s">
+        <v>54</v>
+      </c>
+      <c r="E274" t="s">
+        <v>55</v>
+      </c>
+      <c r="F274" t="s">
+        <v>56</v>
+      </c>
+      <c r="G274" t="s">
+        <v>58</v>
+      </c>
+      <c r="H274">
+        <v>451</v>
+      </c>
+      <c r="I274" t="s">
+        <v>61</v>
+      </c>
+      <c r="J274" t="s">
+        <v>64</v>
+      </c>
+      <c r="K274" t="s">
+        <v>64</v>
+      </c>
+      <c r="L274" t="s">
+        <v>116</v>
+      </c>
+      <c r="M274" t="s">
+        <v>117</v>
+      </c>
+      <c r="N274">
+        <v>52</v>
+      </c>
+      <c r="O274">
+        <v>1.5</v>
+      </c>
+      <c r="P274">
+        <v>0.6</v>
+      </c>
+      <c r="Q274">
+        <v>0.6</v>
+      </c>
+      <c r="R274" t="s">
+        <v>118</v>
+      </c>
+      <c r="S274">
+        <v>165.8498572557945</v>
+      </c>
+      <c r="T274">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U274">
+        <v>114.0345616</v>
+      </c>
+      <c r="V274" t="s">
+        <v>392</v>
+      </c>
+      <c r="W274">
+        <v>165.8498572557945</v>
+      </c>
+      <c r="X274">
+        <v>147.315610680452</v>
+      </c>
+      <c r="Y274">
+        <v>18.53424657534246</v>
+      </c>
+      <c r="Z274">
+        <v>18.53424657534246</v>
+      </c>
+      <c r="AA274">
+        <v>451</v>
+      </c>
+      <c r="AB274">
+        <v>9.43179157015048</v>
+      </c>
+      <c r="AC274">
+        <v>0</v>
+      </c>
+      <c r="AD274">
+        <v>0</v>
+      </c>
+      <c r="AE274">
+        <v>0.1316414075001757</v>
+      </c>
+      <c r="AF274">
+        <v>0.1316414075001757</v>
+      </c>
+      <c r="AG274">
+        <v>0.1169300634779115</v>
+      </c>
+      <c r="AI274">
+        <v>52.23304714193217</v>
+      </c>
+      <c r="AJ274">
+        <v>100.9107935350442</v>
+      </c>
+      <c r="AL274">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM274">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN274">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO274">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP274">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ274">
+        <v>816.9749105817846</v>
+      </c>
+      <c r="AR274">
+        <v>51.77188266618072</v>
+      </c>
+      <c r="AS274">
+        <v>109.8902225242784</v>
+      </c>
+      <c r="AT274">
+        <v>8.979428989234172</v>
+      </c>
+      <c r="AU274">
+        <v>87.05507856988694</v>
+      </c>
+      <c r="AV274">
+        <v>34.37108742896704</v>
+      </c>
+      <c r="AW274">
+        <v>5.828229996524374</v>
+      </c>
+      <c r="AX274">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY274">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ274">
+        <v>0</v>
+      </c>
+      <c r="BA274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:53">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>53</v>
+      </c>
+      <c r="C275" t="s">
+        <v>54</v>
+      </c>
+      <c r="D275" t="s">
+        <v>54</v>
+      </c>
+      <c r="E275" t="s">
+        <v>55</v>
+      </c>
+      <c r="F275" t="s">
+        <v>56</v>
+      </c>
+      <c r="G275" t="s">
+        <v>58</v>
+      </c>
+      <c r="H275">
+        <v>452</v>
+      </c>
+      <c r="I275" t="s">
+        <v>60</v>
+      </c>
+      <c r="J275" t="s">
+        <v>64</v>
+      </c>
+      <c r="K275" t="s">
+        <v>64</v>
+      </c>
+      <c r="L275" t="s">
+        <v>116</v>
+      </c>
+      <c r="M275" t="s">
+        <v>117</v>
+      </c>
+      <c r="N275">
+        <v>52</v>
+      </c>
+      <c r="O275">
+        <v>1.5</v>
+      </c>
+      <c r="P275">
+        <v>0.6</v>
+      </c>
+      <c r="Q275">
+        <v>0.6</v>
+      </c>
+      <c r="R275" t="s">
+        <v>118</v>
+      </c>
+      <c r="S275">
+        <v>161.906175483623</v>
+      </c>
+      <c r="T275">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U275">
+        <v>114.5505472</v>
+      </c>
+      <c r="V275" t="s">
+        <v>393</v>
+      </c>
+      <c r="W275">
+        <v>161.906175483623</v>
+      </c>
+      <c r="X275">
+        <v>143.3308330178695</v>
+      </c>
+      <c r="Y275">
+        <v>18.57534246575343</v>
+      </c>
+      <c r="Z275">
+        <v>18.57534246575343</v>
+      </c>
+      <c r="AA275">
+        <v>452</v>
+      </c>
+      <c r="AB275">
+        <v>9.452704633498929</v>
+      </c>
+      <c r="AC275">
+        <v>0</v>
+      </c>
+      <c r="AD275">
+        <v>0</v>
+      </c>
+      <c r="AE275">
+        <v>0.128511155669927</v>
+      </c>
+      <c r="AF275">
+        <v>0.128511155669927</v>
+      </c>
+      <c r="AG275">
+        <v>0.1137671922595868</v>
+      </c>
+      <c r="AI275">
+        <v>47.33205297324663</v>
+      </c>
+      <c r="AJ275">
+        <v>101.07201766124</v>
+      </c>
+      <c r="AL275">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM275">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN275">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO275">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP275">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ275">
+        <v>816.8776364555802</v>
+      </c>
+      <c r="AR275">
+        <v>49.70203216686137</v>
+      </c>
+      <c r="AS275">
+        <v>109.8394561354743</v>
+      </c>
+      <c r="AT275">
+        <v>8.767438474234339</v>
+      </c>
+      <c r="AU275">
+        <v>78.88675495541105</v>
+      </c>
+      <c r="AV275">
+        <v>29.91863632228924</v>
+      </c>
+      <c r="AW275">
+        <v>5.073237616617074</v>
+      </c>
+      <c r="AX275">
+        <v>0</v>
+      </c>
+      <c r="AY275">
+        <v>0</v>
+      </c>
+      <c r="AZ275">
+        <v>0</v>
+      </c>
+      <c r="BA275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:53">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>53</v>
+      </c>
+      <c r="C276" t="s">
+        <v>54</v>
+      </c>
+      <c r="D276" t="s">
+        <v>54</v>
+      </c>
+      <c r="E276" t="s">
+        <v>55</v>
+      </c>
+      <c r="F276" t="s">
+        <v>56</v>
+      </c>
+      <c r="G276" t="s">
+        <v>58</v>
+      </c>
+      <c r="H276">
+        <v>453</v>
+      </c>
+      <c r="I276" t="s">
+        <v>61</v>
+      </c>
+      <c r="J276" t="s">
+        <v>64</v>
+      </c>
+      <c r="K276" t="s">
+        <v>64</v>
+      </c>
+      <c r="L276" t="s">
+        <v>116</v>
+      </c>
+      <c r="M276" t="s">
+        <v>117</v>
+      </c>
+      <c r="N276">
+        <v>52</v>
+      </c>
+      <c r="O276">
+        <v>1.5</v>
+      </c>
+      <c r="P276">
+        <v>0.6</v>
+      </c>
+      <c r="Q276">
+        <v>0.6</v>
+      </c>
+      <c r="R276" t="s">
+        <v>118</v>
+      </c>
+      <c r="S276">
+        <v>165.5290629993175</v>
+      </c>
+      <c r="T276">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U276">
+        <v>114.2597702000003</v>
+      </c>
+      <c r="V276" t="s">
+        <v>394</v>
+      </c>
+      <c r="W276">
+        <v>165.5290629993175</v>
+      </c>
+      <c r="X276">
+        <v>146.9126246431532</v>
+      </c>
+      <c r="Y276">
+        <v>18.61643835616438</v>
+      </c>
+      <c r="Z276">
+        <v>18.61643835616438</v>
+      </c>
+      <c r="AA276">
+        <v>453</v>
+      </c>
+      <c r="AB276">
+        <v>9.473617696847377</v>
+      </c>
+      <c r="AC276">
+        <v>0</v>
+      </c>
+      <c r="AD276">
+        <v>0</v>
+      </c>
+      <c r="AE276">
+        <v>0.131386780766458</v>
+      </c>
+      <c r="AF276">
+        <v>0.131386780766458</v>
+      </c>
+      <c r="AG276">
+        <v>0.1166101979680419</v>
+      </c>
+      <c r="AI276">
+        <v>52.23304714193217</v>
+      </c>
+      <c r="AJ276">
+        <v>100.8469431162252</v>
+      </c>
+      <c r="AL276">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM276">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN276">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO276">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP276">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ276">
+        <v>818.6303239123657</v>
+      </c>
+      <c r="AR276">
+        <v>53.23658410684895</v>
+      </c>
+      <c r="AS276">
+        <v>110.0640762019317</v>
+      </c>
+      <c r="AT276">
+        <v>9.217133085706465</v>
+      </c>
+      <c r="AU276">
+        <v>87.05507856988694</v>
+      </c>
+      <c r="AV276">
+        <v>36.37108742896699</v>
+      </c>
+      <c r="AW276">
+        <v>6.167365615004244</v>
+      </c>
+      <c r="AX276">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY276">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ276">
+        <v>0</v>
+      </c>
+      <c r="BA276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:53">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>53</v>
+      </c>
+      <c r="C277" t="s">
+        <v>54</v>
+      </c>
+      <c r="D277" t="s">
+        <v>54</v>
+      </c>
+      <c r="E277" t="s">
+        <v>55</v>
+      </c>
+      <c r="F277" t="s">
+        <v>56</v>
+      </c>
+      <c r="G277" t="s">
+        <v>58</v>
+      </c>
+      <c r="H277">
+        <v>454</v>
+      </c>
+      <c r="I277" t="s">
+        <v>60</v>
+      </c>
+      <c r="J277" t="s">
+        <v>64</v>
+      </c>
+      <c r="K277" t="s">
+        <v>64</v>
+      </c>
+      <c r="L277" t="s">
+        <v>116</v>
+      </c>
+      <c r="M277" t="s">
+        <v>117</v>
+      </c>
+      <c r="N277">
+        <v>52</v>
+      </c>
+      <c r="O277">
+        <v>1.5</v>
+      </c>
+      <c r="P277">
+        <v>0.6</v>
+      </c>
+      <c r="Q277">
+        <v>0.6</v>
+      </c>
+      <c r="R277" t="s">
+        <v>118</v>
+      </c>
+      <c r="S277">
+        <v>161.8939997774286</v>
+      </c>
+      <c r="T277">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U277">
+        <v>113.6394691999999</v>
+      </c>
+      <c r="V277" t="s">
+        <v>395</v>
+      </c>
+      <c r="W277">
+        <v>161.8939997774286</v>
+      </c>
+      <c r="X277">
+        <v>143.2364655308533</v>
+      </c>
+      <c r="Y277">
+        <v>18.65753424657534</v>
+      </c>
+      <c r="Z277">
+        <v>18.65753424657534</v>
+      </c>
+      <c r="AA277">
+        <v>454</v>
+      </c>
+      <c r="AB277">
+        <v>9.494530760195827</v>
+      </c>
+      <c r="AC277">
+        <v>0</v>
+      </c>
+      <c r="AD277">
+        <v>0</v>
+      </c>
+      <c r="AE277">
+        <v>0.1285014913438476</v>
+      </c>
+      <c r="AF277">
+        <v>0.1285014913438476</v>
+      </c>
+      <c r="AG277">
+        <v>0.1136922891573555</v>
+      </c>
+      <c r="AI277">
+        <v>47.33205297324663</v>
+      </c>
+      <c r="AJ277">
+        <v>100.9788036967356</v>
+      </c>
+      <c r="AL277">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM277">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN277">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO277">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP277">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ277">
+        <v>818.624627568945</v>
+      </c>
+      <c r="AR277">
+        <v>51.3788130908554</v>
+      </c>
+      <c r="AS277">
+        <v>110.0420263259624</v>
+      </c>
+      <c r="AT277">
+        <v>9.063222629226891</v>
+      </c>
+      <c r="AU277">
+        <v>78.88675495541105</v>
+      </c>
+      <c r="AV277">
+        <v>29.92543904337764</v>
+      </c>
+      <c r="AW277">
+        <v>5.074391139128904</v>
+      </c>
+      <c r="AX277">
+        <v>0</v>
+      </c>
+      <c r="AY277">
+        <v>0</v>
+      </c>
+      <c r="AZ277">
+        <v>0</v>
+      </c>
+      <c r="BA277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:53">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>53</v>
+      </c>
+      <c r="C278" t="s">
+        <v>54</v>
+      </c>
+      <c r="D278" t="s">
+        <v>54</v>
+      </c>
+      <c r="E278" t="s">
+        <v>55</v>
+      </c>
+      <c r="F278" t="s">
+        <v>56</v>
+      </c>
+      <c r="G278" t="s">
+        <v>58</v>
+      </c>
+      <c r="H278">
+        <v>455</v>
+      </c>
+      <c r="I278" t="s">
+        <v>61</v>
+      </c>
+      <c r="J278" t="s">
+        <v>64</v>
+      </c>
+      <c r="K278" t="s">
+        <v>64</v>
+      </c>
+      <c r="L278" t="s">
+        <v>116</v>
+      </c>
+      <c r="M278" t="s">
+        <v>117</v>
+      </c>
+      <c r="N278">
+        <v>52</v>
+      </c>
+      <c r="O278">
+        <v>1.5</v>
+      </c>
+      <c r="P278">
+        <v>0.6</v>
+      </c>
+      <c r="Q278">
+        <v>0.6</v>
+      </c>
+      <c r="R278" t="s">
+        <v>118</v>
+      </c>
+      <c r="S278">
+        <v>165.2501812795308</v>
+      </c>
+      <c r="T278">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U278">
+        <v>114.5732799000002</v>
+      </c>
+      <c r="V278" t="s">
+        <v>396</v>
+      </c>
+      <c r="W278">
+        <v>165.2501812795308</v>
+      </c>
+      <c r="X278">
+        <v>146.5515511425444</v>
+      </c>
+      <c r="Y278">
+        <v>18.6986301369863</v>
+      </c>
+      <c r="Z278">
+        <v>18.6986301369863</v>
+      </c>
+      <c r="AA278">
+        <v>455</v>
+      </c>
+      <c r="AB278">
+        <v>9.515443823544276</v>
+      </c>
+      <c r="AC278">
+        <v>0</v>
+      </c>
+      <c r="AD278">
+        <v>0</v>
+      </c>
+      <c r="AE278">
+        <v>0.1311654216243625</v>
+      </c>
+      <c r="AF278">
+        <v>0.1311654216243625</v>
+      </c>
+      <c r="AG278">
+        <v>0.1163236000497944</v>
+      </c>
+      <c r="AI278">
+        <v>52.23304714193218</v>
+      </c>
+      <c r="AJ278">
+        <v>100.8250052340963</v>
+      </c>
+      <c r="AL278">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM278">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN278">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO278">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP278">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ278">
+        <v>820.6701861276304</v>
+      </c>
+      <c r="AR278">
+        <v>54.58024386798094</v>
+      </c>
+      <c r="AS278">
+        <v>110.312729783765</v>
+      </c>
+      <c r="AT278">
+        <v>9.487724549668652</v>
+      </c>
+      <c r="AU278">
+        <v>87.05507856988697</v>
+      </c>
+      <c r="AV278">
+        <v>38.37108742896674</v>
+      </c>
+      <c r="AW278">
+        <v>6.506501233484081</v>
+      </c>
+      <c r="AX278">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY278">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ278">
+        <v>0</v>
+      </c>
+      <c r="BA278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:53">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>53</v>
+      </c>
+      <c r="C279" t="s">
+        <v>54</v>
+      </c>
+      <c r="D279" t="s">
+        <v>54</v>
+      </c>
+      <c r="E279" t="s">
+        <v>55</v>
+      </c>
+      <c r="F279" t="s">
+        <v>56</v>
+      </c>
+      <c r="G279" t="s">
+        <v>58</v>
+      </c>
+      <c r="H279">
+        <v>456</v>
+      </c>
+      <c r="I279" t="s">
+        <v>60</v>
+      </c>
+      <c r="J279" t="s">
+        <v>64</v>
+      </c>
+      <c r="K279" t="s">
+        <v>64</v>
+      </c>
+      <c r="L279" t="s">
+        <v>116</v>
+      </c>
+      <c r="M279" t="s">
+        <v>117</v>
+      </c>
+      <c r="N279">
+        <v>52</v>
+      </c>
+      <c r="O279">
+        <v>1.5</v>
+      </c>
+      <c r="P279">
+        <v>0.6</v>
+      </c>
+      <c r="Q279">
+        <v>0.6</v>
+      </c>
+      <c r="R279" t="s">
+        <v>118</v>
+      </c>
+      <c r="S279">
+        <v>161.8832810965696</v>
+      </c>
+      <c r="T279">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U279">
+        <v>113.4387733999997</v>
+      </c>
+      <c r="V279" t="s">
+        <v>397</v>
+      </c>
+      <c r="W279">
+        <v>161.8832810965696</v>
+      </c>
+      <c r="X279">
+        <v>143.1435550691724</v>
+      </c>
+      <c r="Y279">
+        <v>18.73972602739726</v>
+      </c>
+      <c r="Z279">
+        <v>18.73972602739726</v>
+      </c>
+      <c r="AA279">
+        <v>456</v>
+      </c>
+      <c r="AB279">
+        <v>9.536356886892724</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AD279">
+        <v>0</v>
+      </c>
+      <c r="AE279">
+        <v>0.1284929835147896</v>
+      </c>
+      <c r="AF279">
+        <v>0.1284929835147896</v>
+      </c>
+      <c r="AG279">
+        <v>0.1136185425521456</v>
+      </c>
+      <c r="AI279">
+        <v>47.33205297324663</v>
+      </c>
+      <c r="AJ279">
+        <v>100.8870467575665</v>
+      </c>
+      <c r="AL279">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM279">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN279">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO279">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP279">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ279">
+        <v>820.262885448331</v>
+      </c>
+      <c r="AR279">
+        <v>52.94686078087031</v>
+      </c>
+      <c r="AS279">
+        <v>110.226872999312</v>
+      </c>
+      <c r="AT279">
+        <v>9.33982624174552</v>
+      </c>
+      <c r="AU279">
+        <v>78.88675495541105</v>
+      </c>
+      <c r="AV279">
+        <v>29.93224176446608</v>
+      </c>
+      <c r="AW279">
+        <v>5.07554466164074</v>
+      </c>
+      <c r="AX279">
+        <v>0</v>
+      </c>
+      <c r="AY279">
+        <v>0</v>
+      </c>
+      <c r="AZ279">
+        <v>0</v>
+      </c>
+      <c r="BA279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:53">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>53</v>
+      </c>
+      <c r="C280" t="s">
+        <v>54</v>
+      </c>
+      <c r="D280" t="s">
+        <v>54</v>
+      </c>
+      <c r="E280" t="s">
+        <v>55</v>
+      </c>
+      <c r="F280" t="s">
+        <v>56</v>
+      </c>
+      <c r="G280" t="s">
+        <v>58</v>
+      </c>
+      <c r="H280">
+        <v>457</v>
+      </c>
+      <c r="I280" t="s">
+        <v>61</v>
+      </c>
+      <c r="J280" t="s">
+        <v>64</v>
+      </c>
+      <c r="K280" t="s">
+        <v>64</v>
+      </c>
+      <c r="L280" t="s">
+        <v>116</v>
+      </c>
+      <c r="M280" t="s">
+        <v>117</v>
+      </c>
+      <c r="N280">
+        <v>52</v>
+      </c>
+      <c r="O280">
+        <v>1.5</v>
+      </c>
+      <c r="P280">
+        <v>0.6</v>
+      </c>
+      <c r="Q280">
+        <v>0.6</v>
+      </c>
+      <c r="R280" t="s">
+        <v>118</v>
+      </c>
+      <c r="S280">
+        <v>164.9135721202492</v>
+      </c>
+      <c r="T280">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U280">
+        <v>113.2048906</v>
+      </c>
+      <c r="V280" t="s">
+        <v>398</v>
+      </c>
+      <c r="W280">
+        <v>164.9135721202492</v>
+      </c>
+      <c r="X280">
+        <v>146.132750202441</v>
+      </c>
+      <c r="Y280">
+        <v>18.78082191780822</v>
+      </c>
+      <c r="Z280">
+        <v>18.78082191780822</v>
+      </c>
+      <c r="AA280">
+        <v>457</v>
+      </c>
+      <c r="AB280">
+        <v>9.557269950241174</v>
+      </c>
+      <c r="AC280">
+        <v>0</v>
+      </c>
+      <c r="AD280">
+        <v>0</v>
+      </c>
+      <c r="AE280">
+        <v>0.1308982419943135</v>
+      </c>
+      <c r="AF280">
+        <v>0.1308982419943135</v>
+      </c>
+      <c r="AG280">
+        <v>0.1159911816435935</v>
+      </c>
+      <c r="AI280">
+        <v>52.2330471419322</v>
+      </c>
+      <c r="AJ280">
+        <v>100.7453399124726</v>
+      </c>
+      <c r="AL280">
+        <v>13.44858420268256</v>
+      </c>
+      <c r="AM280">
+        <v>1147.608057228019</v>
+      </c>
+      <c r="AN280">
+        <v>112.2528057422671</v>
+      </c>
+      <c r="AO280">
+        <v>1259.860862970286</v>
+      </c>
+      <c r="AP280">
+        <v>518.8070452831417</v>
+      </c>
+      <c r="AQ280">
+        <v>822.1483106987921</v>
+      </c>
+      <c r="AR280">
+        <v>55.73230293525971</v>
+      </c>
+      <c r="AS280">
+        <v>110.4890493680415</v>
+      </c>
+      <c r="AT280">
+        <v>9.743709455568874</v>
+      </c>
+      <c r="AU280">
+        <v>87.055078569887</v>
+      </c>
+      <c r="AV280">
+        <v>40.37108742896619</v>
+      </c>
+      <c r="AW280">
+        <v>6.845636851963867</v>
+      </c>
+      <c r="AX280">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="AY280">
+        <v>10.3916495</v>
+      </c>
+      <c r="AZ280">
+        <v>0</v>
+      </c>
+      <c r="BA280">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
